--- a/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.hasPart` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.hasPart` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.hasPart` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,8 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.hasPart.reference` is part of an existing definition because parent element `DeviceDefinition.hasPart` requires a cross-version extension.
-Element `DeviceDefinition.hasPart.reference` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.hasPart.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceDefinition.hasPart.reference` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -422,7 +423,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.hasPart.count` is part of an existing definition because parent element `DeviceDefinition.hasPart` requires a cross-version extension.
-Element `DeviceDefinition.hasPart.count` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.hasPart.count` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -788,7 +789,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="131.6953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="200.08203125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.hasPart` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.hasPart` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.hasPart` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,7 @@
   <si>
     <t>Element `DeviceDefinition.hasPart.reference` is part of an existing definition because parent element `DeviceDefinition.hasPart` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.hasPart.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceDefinition.hasPart.reference` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.hasPart.reference` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -387,6 +387,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart.reference</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,7 +426,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.hasPart.count` is part of an existing definition because parent element `DeviceDefinition.hasPart` requires a cross-version extension.
-Element `DeviceDefinition.hasPart.count` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.hasPart.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>Extension.extension:count.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart.count</t>
   </si>
   <si>
     <t>Extension.extension:count.value[x]</t>
@@ -1595,7 +1601,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1637,7 +1643,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1652,15 +1658,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1683,7 +1689,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1740,7 +1746,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1752,21 +1758,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1791,14 +1797,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1867,7 +1873,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2160,7 +2166,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2175,15 +2181,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2206,13 +2212,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2263,7 +2269,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2275,18 +2281,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2368,7 +2374,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2383,15 +2389,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2414,13 +2420,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2471,7 +2477,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2483,10 +2489,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -402,7 +402,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.hasPart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Reference to the device that is part of the current device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.hasPart.reference` is part of an existing definition because parent element `DeviceDefinition.hasPart` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.hasPart.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.hasPart.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `DeviceDefinition.hasPart.reference` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
@@ -387,9 +386,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart.reference</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -402,7 +398,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -425,8 +421,7 @@
     <t>Number of instances of the component device in the current device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.hasPart.count` is part of an existing definition because parent element `DeviceDefinition.hasPart` requires a cross-version extension.
-Element `DeviceDefinition.hasPart.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.hasPart.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -436,9 +431,6 @@
   </si>
   <si>
     <t>Extension.extension:count.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart.count</t>
   </si>
   <si>
     <t>Extension.extension:count.value[x]</t>
@@ -1601,72 +1593,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1689,7 +1681,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1746,7 +1738,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1758,21 +1750,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1797,14 +1789,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1873,7 +1865,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1976,7 +1968,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2081,7 +2073,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2124,7 +2116,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2166,30 +2158,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2212,13 +2204,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2269,7 +2261,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2281,18 +2273,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2374,30 +2366,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2420,13 +2412,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2477,7 +2469,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2489,10 +2481,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
